--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:42:52+00:00</t>
+    <t>2022-01-27T20:52:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:52:08+00:00</t>
+    <t>2022-01-27T21:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:05:29+00:00</t>
+    <t>2022-01-27T21:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:06:26+00:00</t>
+    <t>2022-01-28T12:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T12:28:01+00:00</t>
+    <t>2022-01-28T16:31:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T16:31:06+00:00</t>
+    <t>2022-06-11T23:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-11T23:04:00+00:00</t>
+    <t>2022-06-16T12:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
